--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Unity\Zcavenger-Unity-game-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Unity\Zcavenger\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Dev RoadMap" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Levels" sheetId="5" r:id="rId5"/>
     <sheet name="Enemies" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +32,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pflores</author>
+    <author>Usuario de Windows</author>
   </authors>
   <commentList>
     <comment ref="D8" authorId="0" shapeId="0">
@@ -230,6 +231,96 @@
         </r>
       </text>
     </comment>
+    <comment ref="J33" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario de Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+• Bathroom Sink
+• Bedside Table
+• Crate
+• File Cupboard
+• Fridge
+• Kitchen cabinet up and down
+• Market Shelf
+• Wardrobe
+• Wooden Shelf
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pflores:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Grab Item
+Use Bandage
+Eat Food
+Drink Water
+Throw objects:
+ Grenade
+ Molotov
+ Rock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario de Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Grenade
+Molovot Coctail
+Rock</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -240,7 +331,7 @@
     <author>Pflores</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="317">
   <si>
     <t>Platforms:</t>
   </si>
@@ -305,9 +396,6 @@
   </si>
   <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>Player detection by sounds</t>
   </si>
   <si>
     <t>Foot placement using IK systems</t>
@@ -857,12 +945,6 @@
     <t>Post Processing Effects</t>
   </si>
   <si>
-    <t>Procedural level generation</t>
-  </si>
-  <si>
-    <t>Use Items Animations</t>
-  </si>
-  <si>
     <t>Animation</t>
   </si>
   <si>
@@ -875,15 +957,9 @@
     <t>TODO'S</t>
   </si>
   <si>
-    <t>Agregar accion de throw en los items</t>
-  </si>
-  <si>
     <t>PRE-ALPHA V0.2</t>
   </si>
   <si>
-    <t>PRE-ALPHA V0.3</t>
-  </si>
-  <si>
     <t>Title screen scene</t>
   </si>
   <si>
@@ -900,12 +976,6 @@
   </si>
   <si>
     <t>UI: Inventory, ingame pause menu</t>
-  </si>
-  <si>
-    <t>Player Effects: Bleeding, Injured, Sick</t>
-  </si>
-  <si>
-    <t>Optimization: Occlusion culling</t>
   </si>
   <si>
     <t xml:space="preserve">UI: Title Screen menu, </t>
@@ -918,15 +988,9 @@
     <t>Health system for player and enemies</t>
   </si>
   <si>
-    <t>Level 1 final design</t>
-  </si>
-  <si>
     <t>Characters design: Main Player</t>
   </si>
   <si>
-    <t>PRE-ALPHA V0.4</t>
-  </si>
-  <si>
     <t>Semi-Automatic simple action pistol. Uses .45 ACP rounds</t>
   </si>
   <si>
@@ -996,9 +1060,6 @@
     <t>Determines the recoil reduction factor for fire weapons and probabilty of critical damages</t>
   </si>
   <si>
-    <t>MULTIPLY FACTOR</t>
-  </si>
-  <si>
     <t>Gives attribute points as player level up</t>
   </si>
   <si>
@@ -1009,6 +1070,264 @@
   </si>
   <si>
     <t>PowerUps</t>
+  </si>
+  <si>
+    <t>enterable buildings: ruined residential building, office building, markets</t>
+  </si>
+  <si>
+    <t>UI:
+options menu with display, graphics, audio and input settings</t>
+  </si>
+  <si>
+    <t>Health System: Stamina</t>
+  </si>
+  <si>
+    <t>Weapons: AK74, Colt 1911</t>
+  </si>
+  <si>
+    <t>Weapons: New models for M4a1 and Glock</t>
+  </si>
+  <si>
+    <t>Improved reloading animations. Magazine grabbing and attaching for AK74, M4A1 and 1911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapons: Shotgun bullet spread </t>
+  </si>
+  <si>
+    <t>AI: Player grabbing attacks</t>
+  </si>
+  <si>
+    <t>Levels: Death zones</t>
+  </si>
+  <si>
+    <t>Levels: Endgame triggers</t>
+  </si>
+  <si>
+    <t>Audio: weapon sounds for AK74 and Colt 1911</t>
+  </si>
+  <si>
+    <t>Audio: reverb zones</t>
+  </si>
+  <si>
+    <t>New item containers</t>
+  </si>
+  <si>
+    <t>PostProcessing: SSAO &amp; Volumetric lighting</t>
+  </si>
+  <si>
+    <t>Performance: Object Pooling system</t>
+  </si>
+  <si>
+    <t>Performance: LOD Groups</t>
+  </si>
+  <si>
+    <t>City level final design</t>
+  </si>
+  <si>
+    <t>Levels: Hospital level design</t>
+  </si>
+  <si>
+    <t>AI: Player detection by sounds</t>
+  </si>
+  <si>
+    <t>Levels: Procedural level generation</t>
+  </si>
+  <si>
+    <t>Animations:
+Use Items Animations</t>
+  </si>
+  <si>
+    <t>Weapons: Throwable items</t>
+  </si>
+  <si>
+    <t>ALPHA V0.4</t>
+  </si>
+  <si>
+    <t>ALPHA V0.3</t>
+  </si>
+  <si>
+    <t>Player death</t>
+  </si>
+  <si>
+    <t>Scripting/UI</t>
+  </si>
+  <si>
+    <t>Binded Keys in options don't work</t>
+  </si>
+  <si>
+    <t>enter options menú
+bind a key to an action</t>
+  </si>
+  <si>
+    <t>keys in options ui should rebind player controls</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Enemies detects the player when visual obstacles are in the middle</t>
+  </si>
+  <si>
+    <t>enter a enemy range</t>
+  </si>
+  <si>
+    <t>Enemies should not be alerted while player is behind an obstacle</t>
+  </si>
+  <si>
+    <t>Scripting/Animations</t>
+  </si>
+  <si>
+    <t>Weapon magazine has displaced orientation related to hand while reloading</t>
+  </si>
+  <si>
+    <t>draw a m4a1 or ak74 rifle</t>
+  </si>
+  <si>
+    <t>Magazine should match the hand orientation to be more realistic</t>
+  </si>
+  <si>
+    <t>M4a1 Rifle is displaced of hand when drawn</t>
+  </si>
+  <si>
+    <t>draw a m4a1 rifle</t>
+  </si>
+  <si>
+    <t>weapon grip should match the hand position of the player</t>
+  </si>
+  <si>
+    <t>Scripting/Animations/AI</t>
+  </si>
+  <si>
+    <t>Enemies keep moving while are in hit animation</t>
+  </si>
+  <si>
+    <t>hit a player with fire guns</t>
+  </si>
+  <si>
+    <t>Enemies should stand still while playing the hit animation</t>
+  </si>
+  <si>
+    <t>Player: Outfitting</t>
+  </si>
+  <si>
+    <t>Armor Head</t>
+  </si>
+  <si>
+    <t>Beanie</t>
+  </si>
+  <si>
+    <t>Baseball Hat</t>
+  </si>
+  <si>
+    <t>Bike Helmet</t>
+  </si>
+  <si>
+    <t>Worker Helmet</t>
+  </si>
+  <si>
+    <t>Motorcycle helmet</t>
+  </si>
+  <si>
+    <t>Kevlar helmet</t>
+  </si>
+  <si>
+    <t>Armor Chest</t>
+  </si>
+  <si>
+    <t>Leather Jacket</t>
+  </si>
+  <si>
+    <t>Police antistab vest</t>
+  </si>
+  <si>
+    <t>Enduro body armor</t>
+  </si>
+  <si>
+    <t>Armor Legs</t>
+  </si>
+  <si>
+    <t>Cargo Pants</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Firefighter Helmet</t>
+  </si>
+  <si>
+    <t>Firefighter jacket</t>
+  </si>
+  <si>
+    <t>Firefighter pants</t>
+  </si>
+  <si>
+    <t>Military Pants</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>PlayerController: Sneak attacks</t>
+  </si>
+  <si>
+    <t>AI: Humanoids enemies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapons: Bersa thunder 9mm
+Ballester-Molina .45 acp
+Smith &amp;Wesson model 29 .44 Revolver
+</t>
+  </si>
+  <si>
+    <t>Items: .44 ammo</t>
+  </si>
+  <si>
+    <t>Items: Bandage, morphine</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Soda can</t>
+  </si>
+  <si>
+    <t>Faster Regeneration</t>
+  </si>
+  <si>
+    <t>Bullet Penetration</t>
+  </si>
+  <si>
+    <t>Damage boost</t>
+  </si>
+  <si>
+    <t>Defense boost</t>
+  </si>
+  <si>
+    <t>Stamina boost</t>
+  </si>
+  <si>
+    <t>Slow Time</t>
+  </si>
+  <si>
+    <t>UI: Level Map</t>
+  </si>
+  <si>
+    <t>When climbing a ladder player is not aligned with the ladder x-axis</t>
+  </si>
+  <si>
+    <t>climb a ladder up or down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player hands should be aligned with ladder </t>
+  </si>
+  <si>
+    <t>Loot enemies</t>
+  </si>
+  <si>
+    <t>Player: Bleeding, Injured and Sick effects</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1264,36 +1583,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1407,19 +1696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1461,19 +1737,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1502,6 +1765,41 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1558,12 +1856,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1591,64 +1883,49 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1699,13 +1976,34 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1995,39 +2293,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3"/>
+    <col min="3" max="3" width="4" style="3" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="3.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="4.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="4.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" style="3" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2051,8 +2349,8 @@
       <c r="B5" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>123</v>
+      <c r="A7" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>7</v>
@@ -2075,106 +2373,106 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="21" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="21" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="41" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="21" t="s">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="21" t="s">
-        <v>180</v>
-      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="25" t="s">
-        <v>201</v>
+      <c r="J11" s="23" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
-        <v>136</v>
+      <c r="B12" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="21" t="s">
-        <v>206</v>
+      <c r="F12" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="21" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2183,20 +2481,20 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="I13" s="36"/>
+      <c r="H13" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="24"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
@@ -2214,8 +2512,8 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>124</v>
+      <c r="A17" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2226,8 +2524,8 @@
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>199</v>
+      <c r="A18" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>7</v>
@@ -2250,11 +2548,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>210</v>
+      <c r="B19" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="5"/>
@@ -2359,8 +2657,8 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>200</v>
+      <c r="A30" s="18" t="s">
+        <v>256</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>7</v>
@@ -2382,67 +2680,92 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="48" t="s">
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B32" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="D32" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="J32" s="49"/>
-    </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="J33" s="49"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="D33" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B34" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="J34" s="41" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="J35" s="49"/>
+      <c r="B35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="J36" s="49"/>
+      <c r="B36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="J37" s="49"/>
+      <c r="B37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D38" s="7"/>
@@ -2451,8 +2774,8 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>214</v>
+      <c r="A39" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>7</v>
@@ -2474,33 +2797,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="F40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="J41" s="7"/>
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B41" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="B42" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="H42" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="J42" s="55"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="D43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="B43" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="D43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="H43" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="J43" s="55"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
@@ -2524,18 +2875,18 @@
       <c r="J46" s="7"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>117</v>
+      <c r="A50" s="19" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2547,14 +2898,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="9075" ySplit="1830" topLeftCell="A8" activePane="bottomLeft"/>
+      <pane ySplit="615" topLeftCell="A14" activePane="bottomLeft"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:D17"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,9 +2920,9 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="7"/>
@@ -2582,19 +2931,15 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="7"/>
@@ -2604,17 +2949,15 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="22" t="s">
-        <v>10</v>
-      </c>
+      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="21" t="s">
-        <v>139</v>
+      <c r="B3" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2623,37 +2966,35 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>142</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2661,27 +3002,27 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="39" t="s">
+    <row r="5" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="40"/>
+      <c r="G5" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="55"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2689,299 +3030,398 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="H7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="41" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41" t="s">
+      <c r="G9" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B11" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="27"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -3006,16 +3446,19 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -3026,18 +3469,18 @@
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I31" s="7"/>
       <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I32" s="7"/>
       <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I33" s="7"/>
       <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -3086,43 +3529,22 @@
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="L43" s="7"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -3133,13 +3555,49 @@
       <c r="J46" s="7"/>
       <c r="L46" s="7"/>
     </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="L49" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3148,12 +3606,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O73"/>
+  <dimension ref="B2:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1350" topLeftCell="A25" activePane="bottomLeft"/>
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1350" topLeftCell="A68" activePane="bottomLeft"/>
+      <selection activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,70 +3619,73 @@
     <col min="1" max="2" width="15.7109375" style="3"/>
     <col min="3" max="3" width="35" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="3" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="3"/>
-    <col min="7" max="9" width="18.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="15.7109375" style="3"/>
+    <col min="5" max="7" width="15.7109375" style="3"/>
+    <col min="8" max="10" width="18.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="15.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="64"/>
-    </row>
-    <row r="4" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="59"/>
+    </row>
+    <row r="4" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>172</v>
-      </c>
       <c r="D4" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="J4" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>85</v>
-      </c>
       <c r="O4" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -3234,193 +3695,200 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>1001</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="5">
         <v>8</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="55"/>
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>1002</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="5">
         <v>12</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="55"/>
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>1003</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="5">
         <v>16</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="55"/>
+      <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>1004</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="5">
         <v>15</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="55"/>
+      <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>1005</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="5">
         <v>18</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="55"/>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <v>1006</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="55"/>
+      <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -3430,15 +3898,16 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -3448,191 +3917,197 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>2001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="5">
         <v>6</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="55"/>
+      <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>17</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>30</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O14" s="5">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>2002</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="5">
         <v>9</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="55"/>
+      <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>7</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>45</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O15" s="5">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>2003</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="5">
         <v>15</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="55"/>
+      <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>6</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>90</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O16" s="5">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>2004</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="E17" s="5">
         <v>5</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="55"/>
+      <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>17</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <v>25</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>0.2</v>
       </c>
-      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O17" s="5">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>2005</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E18" s="5">
         <v>9</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="55"/>
+      <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>7</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>40</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -3642,225 +4117,232 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>3001</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="5">
         <v>4</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="55"/>
+      <c r="G20" s="5">
         <v>10</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>30</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <v>20</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20" s="5">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>3002</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" s="5">
         <v>5</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="55"/>
+      <c r="G21" s="5">
         <v>10</v>
-      </c>
-      <c r="G21" s="5">
-        <v>25</v>
       </c>
       <c r="H21" s="5">
         <v>25</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="5"/>
+      <c r="I21" s="5">
+        <v>25</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O21" s="5">
+      <c r="N21" s="5"/>
+      <c r="O21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>3003</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="5">
         <v>7</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="55"/>
+      <c r="G22" s="5">
         <v>9</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <v>30</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>20</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O22" s="5">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>3004</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E23" s="5">
         <v>8</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="55"/>
+      <c r="G23" s="5">
         <v>6</v>
-      </c>
-      <c r="G23" s="5">
-        <v>30</v>
       </c>
       <c r="H23" s="5">
         <v>30</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="5"/>
+      <c r="I23" s="5">
+        <v>30</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23" s="5">
+      <c r="N23" s="5"/>
+      <c r="O23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>3005</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5">
         <v>8</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="55"/>
+      <c r="G24" s="5">
         <v>6</v>
-      </c>
-      <c r="G24" s="5">
-        <v>30</v>
       </c>
       <c r="H24" s="5">
         <v>30</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J24" s="5"/>
+      <c r="I24" s="5">
+        <v>30</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O24" s="5">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>3006</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5">
         <v>9</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="55"/>
+      <c r="G25" s="5">
         <v>4</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <v>20</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <v>45</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O25" s="5">
+      <c r="N25" s="5"/>
+      <c r="O25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -3870,15 +4352,16 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -3888,81 +4371,84 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>4001</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5">
         <v>40</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="55"/>
+      <c r="G28" s="5">
         <v>1</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <v>5</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="5">
         <v>60</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="5"/>
+      <c r="J28" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O28" s="5">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P28" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>4002</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5">
         <v>60</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="55"/>
+      <c r="G29" s="5">
         <v>1</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <v>5</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="5">
         <v>75</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" s="5"/>
+      <c r="J29" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O29" s="5">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="55"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -3972,15 +4458,16 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -3990,137 +4477,142 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>5001</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5">
         <v>25</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="55"/>
+      <c r="G32" s="5">
         <v>1</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <v>2</v>
       </c>
-      <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O32" s="5">
+      <c r="N32" s="5"/>
+      <c r="O32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P32" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>5002</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5">
         <v>30</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="55"/>
+      <c r="G33" s="5">
         <v>1</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="5">
         <v>2</v>
       </c>
-      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O33" s="5">
+      <c r="N33" s="5"/>
+      <c r="O33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>5003</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5">
         <v>25</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="55"/>
+      <c r="G34" s="5">
         <v>1</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>6</v>
       </c>
-      <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O34" s="5">
+      <c r="N34" s="5"/>
+      <c r="O34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P34" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>5004</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5">
         <v>20</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="55"/>
+      <c r="G35" s="5">
         <v>1</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="5">
         <v>8</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
         <v>60</v>
       </c>
-      <c r="I35" s="5">
+      <c r="J35" s="5">
         <v>0.5</v>
       </c>
-      <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O35" s="5">
+      <c r="N35" s="5"/>
+      <c r="O35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P35" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="F36" s="55"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -4130,13 +4622,14 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -4146,15 +4639,16 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -4164,139 +4658,153 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="5"/>
+    </row>
+    <row r="39" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>6001</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="55"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="5">
+      <c r="J39" s="5"/>
+      <c r="K39" s="5">
         <v>10</v>
       </c>
-      <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O39" s="5">
+      <c r="N39" s="5"/>
+      <c r="O39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P39" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>6002</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="F40" s="55"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="5">
+      <c r="J40" s="5"/>
+      <c r="K40" s="5">
         <v>5</v>
       </c>
-      <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O40" s="5">
+      <c r="N40" s="5"/>
+      <c r="O40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P40" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>6003</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="55"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="5">
+      <c r="J41" s="5"/>
+      <c r="K41" s="5">
         <v>5</v>
       </c>
-      <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O41" s="5">
+      <c r="N41" s="5"/>
+      <c r="O41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P41" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>6004</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5">
         <v>60</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="5">
+      <c r="J42" s="5"/>
+      <c r="K42" s="5">
         <v>10</v>
       </c>
-      <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O42" s="5">
+      <c r="N42" s="5"/>
+      <c r="O42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P42" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14" t="s">
-        <v>17</v>
-      </c>
+    <row r="43" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>6005</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55">
+        <v>0</v>
+      </c>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+    </row>
+    <row r="44" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="55"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -4306,237 +4814,239 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1">
-        <v>7001</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>62</v>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="F45" s="55"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="5">
-        <v>25</v>
-      </c>
+      <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O45" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+    </row>
+    <row r="46" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="F46" s="55"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="5">
-        <v>50</v>
-      </c>
-      <c r="L46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5">
+        <v>25</v>
+      </c>
       <c r="M46" s="5"/>
-      <c r="N46" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O46" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N46" s="5"/>
+      <c r="O46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P46" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="5">
-        <v>75</v>
-      </c>
-      <c r="L47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5">
+        <v>50</v>
+      </c>
       <c r="M47" s="5"/>
-      <c r="N47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O47" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N47" s="5"/>
+      <c r="O47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P47" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="K48" s="5"/>
       <c r="L48" s="5">
-        <v>30</v>
-      </c>
-      <c r="M48" s="5">
-        <v>5</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O48" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P48" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L49" s="5">
+      <c r="K49" s="5"/>
+      <c r="L49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M49" s="5">
+        <v>30</v>
+      </c>
+      <c r="N49" s="5">
         <v>5</v>
       </c>
-      <c r="M49" s="5">
-        <v>50</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O49" s="5">
+      <c r="O49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P49" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+    <row r="50" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>7005</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M50" s="5">
+        <v>5</v>
+      </c>
+      <c r="N50" s="5">
+        <v>50</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P50" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>7006</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+    </row>
+    <row r="52" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
-        <v>8001</v>
+        <v>7007</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O52" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+    </row>
+    <row r="53" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
-        <v>8002</v>
+        <v>7008</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O53" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1">
-        <v>8003</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+    </row>
+    <row r="54" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -4544,23 +5054,18 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O54" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1">
-        <v>8004</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>68</v>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+    </row>
+    <row r="55" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="F55" s="55"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -4568,23 +5073,20 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O55" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+    </row>
+    <row r="56" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
-        <v>8005</v>
+        <v>8001</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="F56" s="55"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -4592,19 +5094,24 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O56" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P56" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>8002</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="F57" s="55"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -4613,16 +5120,23 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-    </row>
-    <row r="58" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14" t="s">
-        <v>80</v>
+      <c r="O57" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P57" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>8003</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="F58" s="55"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -4631,18 +5145,23 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-    </row>
-    <row r="59" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O58" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P58" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
-        <v>9001</v>
+        <v>8004</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="F59" s="55"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -4650,25 +5169,24 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O59" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N59" s="5"/>
+      <c r="O59" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P59" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
-        <v>9002</v>
+        <v>8005</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>217</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="F60" s="55"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -4676,23 +5194,20 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O60" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1">
-        <v>9003</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P60" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="55"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -4700,23 +5215,18 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O61" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1">
-        <v>9004</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>82</v>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+    </row>
+    <row r="62" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="F62" s="55"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -4724,25 +5234,20 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O62" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+    </row>
+    <row r="63" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
-        <v>9005</v>
+        <v>9001</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>187</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="55"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -4750,23 +5255,26 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O63" s="5">
+      <c r="N63" s="5"/>
+      <c r="O63" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P63" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
-        <v>9006</v>
+        <v>9002</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="F64" s="55"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -4774,23 +5282,24 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O64" s="5">
+      <c r="N64" s="5"/>
+      <c r="O64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P64" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="65" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
-        <v>9007</v>
+        <v>9003</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="55"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -4799,16 +5308,23 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-    </row>
-    <row r="66" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="14"/>
-      <c r="C66" s="14" t="s">
-        <v>131</v>
+      <c r="O65" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P65" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>9004</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="F66" s="55"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -4817,18 +5333,25 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-    </row>
-    <row r="67" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O66" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P66" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
-        <v>100001</v>
+        <v>9005</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="F67" s="55"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -4836,23 +5359,24 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="5"/>
+      <c r="O67" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P67" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
-        <v>100002</v>
+        <v>9006</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="F68" s="55"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -4860,23 +5384,24 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="5"/>
+      <c r="O68" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P68" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
-        <v>100003</v>
+        <v>9007</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="55"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -4884,94 +5409,801 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+    </row>
+    <row r="70" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
       <c r="C70" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="51"/>
-      <c r="M70" s="51"/>
-      <c r="N70" s="51"/>
-      <c r="O70" s="51"/>
-    </row>
-    <row r="71" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+    </row>
+    <row r="71" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
+        <v>100001</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>100002</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>100003</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+    </row>
+    <row r="75" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
         <v>110001</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="51"/>
-      <c r="M71" s="51"/>
-      <c r="N71" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="O71" s="51">
+      <c r="C75" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="P75" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1">
+    <row r="76" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
         <v>110002</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="O72" s="51">
+      <c r="C76" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="P76" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1">
+    <row r="77" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
         <v>110003</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="51"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
-      <c r="L73" s="51"/>
-      <c r="M73" s="51"/>
-      <c r="N73" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="O73" s="51">
+      <c r="C77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="55"/>
+      <c r="P77" s="55"/>
+    </row>
+    <row r="78" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>110004</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="55"/>
+      <c r="P78" s="55"/>
+    </row>
+    <row r="79" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>110005</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="55"/>
+      <c r="O79" s="55"/>
+      <c r="P79" s="55"/>
+    </row>
+    <row r="80" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>110006</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="55"/>
+    </row>
+    <row r="81" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="P81" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="55"/>
+      <c r="P82" s="55"/>
+    </row>
+    <row r="83" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>120001</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="55"/>
+      <c r="O83" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P83" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>120002</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P84" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>120003</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="55"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="55"/>
+    </row>
+    <row r="86" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>120004</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="55"/>
+      <c r="P86" s="55"/>
+    </row>
+    <row r="87" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>120005</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P87" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>120006</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="55"/>
+    </row>
+    <row r="89" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>120007</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="55"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="55"/>
+      <c r="N89" s="55"/>
+      <c r="O89" s="55"/>
+      <c r="P89" s="55"/>
+    </row>
+    <row r="90" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="55"/>
+      <c r="N90" s="55"/>
+      <c r="O90" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P90" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="55"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="55"/>
+      <c r="M91" s="55"/>
+      <c r="N91" s="55"/>
+      <c r="O91" s="55"/>
+      <c r="P91" s="55"/>
+    </row>
+    <row r="92" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>130001</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="55"/>
+      <c r="O92" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P92" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>130002</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="55"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="55"/>
+      <c r="N93" s="55"/>
+      <c r="O93" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P93" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>130003</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="55"/>
+      <c r="N94" s="55"/>
+      <c r="O94" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P94" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <v>130004</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="55"/>
+      <c r="N95" s="55"/>
+      <c r="O95" s="55"/>
+      <c r="P95" s="55"/>
+    </row>
+    <row r="96" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="55"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="55"/>
+      <c r="M96" s="55"/>
+      <c r="N96" s="55"/>
+      <c r="O96" s="55"/>
+      <c r="P96" s="55"/>
+    </row>
+    <row r="97" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="55"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="55"/>
+      <c r="M97" s="55"/>
+      <c r="N97" s="55"/>
+      <c r="O97" s="55"/>
+      <c r="P97" s="55"/>
+    </row>
+    <row r="98" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="55"/>
+      <c r="M98" s="55"/>
+      <c r="N98" s="55"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="55"/>
+    </row>
+    <row r="99" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="55"/>
+    </row>
+    <row r="100" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>140001</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="55"/>
+      <c r="M100" s="55"/>
+      <c r="N100" s="55"/>
+      <c r="O100" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P100" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <v>140002</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="55"/>
+      <c r="K101" s="55"/>
+      <c r="L101" s="55"/>
+      <c r="M101" s="55"/>
+      <c r="N101" s="55"/>
+      <c r="O101" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P101" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>140003</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="55"/>
+      <c r="K102" s="55"/>
+      <c r="L102" s="55"/>
+      <c r="M102" s="55"/>
+      <c r="N102" s="55"/>
+      <c r="O102" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P102" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="1">
+        <v>140004</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D103" s="55"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="55"/>
+      <c r="K103" s="55"/>
+      <c r="L103" s="55"/>
+      <c r="M103" s="55"/>
+      <c r="N103" s="55"/>
+      <c r="O103" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P103" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="55"/>
+      <c r="I104" s="55"/>
+      <c r="J104" s="55"/>
+      <c r="K104" s="55"/>
+      <c r="L104" s="55"/>
+      <c r="M104" s="55"/>
+      <c r="N104" s="55"/>
+      <c r="O104" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P104" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="55"/>
+      <c r="L105" s="55"/>
+      <c r="M105" s="55"/>
+      <c r="N105" s="55"/>
+      <c r="O105" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P105" s="55">
         <v>1</v>
       </c>
     </row>
@@ -4988,8 +6220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5005,22 +6237,20 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="66"/>
+      <c r="B2" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="61"/>
     </row>
     <row r="4" spans="2:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -5033,246 +6263,260 @@
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
-        <v>236</v>
+      <c r="B5" s="48" t="s">
+        <v>227</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="51">
+        <v>229</v>
+      </c>
+      <c r="D5" s="44">
         <v>1</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
     </row>
     <row r="6" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="44">
+        <v>1</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+    </row>
+    <row r="7" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="44">
+        <v>1</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="44">
+        <v>1</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+    </row>
+    <row r="9" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D9" s="44">
+        <v>1</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+    </row>
+    <row r="10" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-    </row>
-    <row r="7" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-    </row>
-    <row r="8" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-    </row>
-    <row r="9" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-    </row>
-    <row r="10" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
+      <c r="D10" s="44">
+        <v>1</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
     </row>
     <row r="11" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
+      <c r="D11" s="44">
+        <v>1</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="44">
+        <v>1</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
     </row>
     <row r="13" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5298,15 +6542,15 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5319,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -5340,12 +6584,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="47"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -5353,7 +6597,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5366,7 +6610,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -5379,7 +6623,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -5492,34 +6736,34 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -5531,7 +6775,7 @@
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5543,7 +6787,7 @@
     </row>
     <row r="7" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5555,7 +6799,7 @@
     </row>
     <row r="8" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5567,7 +6811,7 @@
     </row>
     <row r="9" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5579,7 +6823,7 @@
     </row>
     <row r="10" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5611,7 +6855,7 @@
     </row>
     <row r="13" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5623,7 +6867,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5635,7 +6879,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5647,7 +6891,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -5659,7 +6903,7 @@
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>

--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Dev RoadMap" sheetId="1" r:id="rId1"/>
@@ -285,13 +285,13 @@
           </rPr>
           <t xml:space="preserve">
 Grab Item
-Use Bandage
-Eat Food
-Drink Water
+Use Bandage ok
+Eat Food ok
+Drink Water ok
 Throw objects:
- Grenade
- Molotov
- Rock</t>
+ Grenade ok
+ Molotov ok
+ Rock ok </t>
         </r>
       </text>
     </comment>
@@ -316,7 +316,7 @@
           </rPr>
           <t xml:space="preserve">
 Grenade
-Molovot Coctail
+Molovot Coctail ok
 Rock</t>
         </r>
       </text>
@@ -360,7 +360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="326">
   <si>
     <t>Platforms:</t>
   </si>
@@ -533,9 +533,6 @@
     <t>Sniper rifle Weapons (Primary)</t>
   </si>
   <si>
-    <t>Molotov</t>
-  </si>
-  <si>
     <t>Grenade</t>
   </si>
   <si>
@@ -546,9 +543,6 @@
   </si>
   <si>
     <t>Bandage</t>
-  </si>
-  <si>
-    <t>Morphine</t>
   </si>
   <si>
     <t>Craft Elements</t>
@@ -1282,9 +1276,6 @@
     <t>Items: .44 ammo</t>
   </si>
   <si>
-    <t>Items: Bandage, morphine</t>
-  </si>
-  <si>
     <t>Banana</t>
   </si>
   <si>
@@ -1328,6 +1319,42 @@
   </si>
   <si>
     <t>Player: Bleeding, Injured and Sick effects</t>
+  </si>
+  <si>
+    <t>Items: Bandage, Epinephrine</t>
+  </si>
+  <si>
+    <t>Epinephrine</t>
+  </si>
+  <si>
+    <t>Sterilized cloth used to cover wounds and prevent infections</t>
+  </si>
+  <si>
+    <t>A small box containing items such as bandages, plasters, and antiseptic wipes for use in giving help to a sick or injured person until full medical treatment is available.</t>
+  </si>
+  <si>
+    <t>Medical device for injecting a measured dose of epinephrine by means of autoinjector technology</t>
+  </si>
+  <si>
+    <t>Preservated industrial food. The expiration date in the can is unreadable.</t>
+  </si>
+  <si>
+    <t>Hopefully it's just water. Well.. it's up to you</t>
+  </si>
+  <si>
+    <t>Just an edible banana. Rich in vitamins and minerals.</t>
+  </si>
+  <si>
+    <t>Metal container with carbonated drink, effective in calming down your thirst and making disasters on your blood sugar levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An edible delicious Apple </t>
+  </si>
+  <si>
+    <t>Molotov Cocktail</t>
+  </si>
+  <si>
+    <t>A glass bottle filled with flammable substances</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1976,6 +2003,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1989,21 +2034,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2294,7 +2324,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,18 +2344,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2350,7 +2380,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>7</v>
@@ -2374,23 +2404,23 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2399,40 +2429,40 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2449,30 +2479,30 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2482,7 +2512,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="2"/>
       <c r="H13" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I13" s="34"/>
     </row>
@@ -2513,7 +2543,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2525,7 +2555,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>7</v>
@@ -2549,10 +2579,10 @@
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="5"/>
@@ -2658,7 +2688,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>7</v>
@@ -2682,68 +2712,68 @@
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B32" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B33" s="41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B34" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H34" s="42"/>
       <c r="J34" s="41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2775,7 +2805,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>7</v>
@@ -2798,58 +2828,58 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
-        <v>316</v>
+      <c r="B40" s="19" t="s">
+        <v>313</v>
       </c>
       <c r="D40" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B41" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="F40" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="J40" s="24" t="s">
+      <c r="D41" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="62" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="B41" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="J41" s="43" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="43" t="s">
-        <v>254</v>
       </c>
       <c r="D42" s="55"/>
       <c r="F42" s="55"/>
       <c r="H42" s="43" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J42" s="55"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="43" t="s">
-        <v>301</v>
+      <c r="B43" s="41" t="s">
+        <v>314</v>
       </c>
       <c r="D43" s="55"/>
       <c r="F43" s="55"/>
       <c r="H43" s="43" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J43" s="55"/>
     </row>
@@ -2886,7 +2916,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2950,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>11</v>
@@ -2957,7 +2987,7 @@
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2973,28 +3003,28 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3004,23 +3034,23 @@
     </row>
     <row r="5" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H5" s="55"/>
       <c r="I5" s="7"/>
@@ -3031,23 +3061,23 @@
     </row>
     <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="25"/>
@@ -3058,28 +3088,28 @@
     </row>
     <row r="7" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -3089,23 +3119,23 @@
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="22"/>
@@ -3116,23 +3146,23 @@
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="34"/>
@@ -3143,23 +3173,23 @@
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="22"/>
@@ -3173,20 +3203,20 @@
         <v>11</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="22"/>
@@ -3196,24 +3226,24 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="65" t="s">
+      <c r="G12" s="61" t="s">
         <v>274</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="G12" s="66" t="s">
-        <v>276</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="56"/>
@@ -3223,24 +3253,24 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="C13" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="65" t="s">
+      <c r="G13" s="61" t="s">
         <v>263</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="66" t="s">
-        <v>265</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="22"/>
@@ -3250,24 +3280,24 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="57" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="56"/>
@@ -3277,24 +3307,24 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="57" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="56"/>
@@ -3304,24 +3334,24 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="57" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="56"/>
@@ -3347,7 +3377,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3363,10 +3393,10 @@
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -3378,10 +3408,10 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -3393,10 +3423,10 @@
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -3408,20 +3438,20 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -3609,9 +3639,9 @@
   <dimension ref="B2:P105"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1350" topLeftCell="A68" activePane="bottomLeft"/>
+      <pane ySplit="1350" topLeftCell="A41" activePane="bottomLeft"/>
       <selection activeCell="G2" sqref="G2"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,20 +3656,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>40</v>
@@ -3648,34 +3678,34 @@
         <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="N4" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3705,7 +3735,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" s="5">
         <v>8</v>
@@ -3722,7 +3752,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P6" s="5">
         <v>1</v>
@@ -3736,7 +3766,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="5">
         <v>12</v>
@@ -3753,7 +3783,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P7" s="5">
         <v>1</v>
@@ -3767,7 +3797,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="5">
         <v>16</v>
@@ -3784,7 +3814,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P8" s="5">
         <v>1</v>
@@ -3798,7 +3828,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="5">
         <v>15</v>
@@ -3815,7 +3845,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P9" s="5">
         <v>1</v>
@@ -3829,7 +3859,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="5">
         <v>18</v>
@@ -3846,7 +3876,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P10" s="5">
         <v>1</v>
@@ -3860,7 +3890,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -3877,7 +3907,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P11" s="5">
         <v>1</v>
@@ -3924,10 +3954,10 @@
         <v>2001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E14" s="5">
         <v>6</v>
@@ -3943,14 +3973,14 @@
         <v>30</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P14" s="5">
         <v>1</v>
@@ -3964,7 +3994,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="5">
         <v>9</v>
@@ -3980,14 +4010,14 @@
         <v>45</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P15" s="5">
         <v>1</v>
@@ -3998,10 +4028,10 @@
         <v>2003</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E16" s="5">
         <v>15</v>
@@ -4017,14 +4047,14 @@
         <v>90</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P16" s="5">
         <v>1</v>
@@ -4035,10 +4065,10 @@
         <v>2004</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E17" s="5">
         <v>5</v>
@@ -4061,7 +4091,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P17" s="5">
         <v>1</v>
@@ -4072,10 +4102,10 @@
         <v>2005</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E18" s="5">
         <v>9</v>
@@ -4091,7 +4121,7 @@
         <v>40</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -4124,10 +4154,10 @@
         <v>3001</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="5">
         <v>4</v>
@@ -4143,14 +4173,14 @@
         <v>20</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P20" s="5">
         <v>1</v>
@@ -4164,7 +4194,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E21" s="5">
         <v>5</v>
@@ -4180,14 +4210,14 @@
         <v>25</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P21" s="5">
         <v>1</v>
@@ -4198,10 +4228,10 @@
         <v>3003</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E22" s="5">
         <v>7</v>
@@ -4217,14 +4247,14 @@
         <v>20</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P22" s="5">
         <v>1</v>
@@ -4238,7 +4268,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E23" s="5">
         <v>8</v>
@@ -4254,14 +4284,14 @@
         <v>30</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P23" s="5">
         <v>1</v>
@@ -4289,14 +4319,14 @@
         <v>30</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P24" s="5">
         <v>1</v>
@@ -4324,14 +4354,14 @@
         <v>45</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P25" s="5">
         <v>1</v>
@@ -4395,14 +4425,14 @@
         <v>60</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P28" s="5">
         <v>1</v>
@@ -4430,14 +4460,14 @@
         <v>75</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P29" s="5">
         <v>1</v>
@@ -4504,7 +4534,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P32" s="5">
         <v>1</v>
@@ -4535,7 +4565,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P33" s="5">
         <v>1</v>
@@ -4566,7 +4596,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P34" s="5">
         <v>1</v>
@@ -4601,7 +4631,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P35" s="5">
         <v>1</v>
@@ -4644,7 +4674,7 @@
     <row r="38" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -4665,7 +4695,7 @@
         <v>6001</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5">
@@ -4683,22 +4713,24 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P39" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>6002</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="5"/>
+        <v>324</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="E40" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F40" s="55"/>
       <c r="G40" s="5"/>
@@ -4712,7 +4744,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P40" s="5">
         <v>5</v>
@@ -4723,7 +4755,7 @@
         <v>6003</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5">
@@ -4741,7 +4773,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P41" s="5">
         <v>5</v>
@@ -4752,7 +4784,7 @@
         <v>6004</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5">
@@ -4770,7 +4802,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P42" s="5">
         <v>5</v>
@@ -4781,7 +4813,7 @@
         <v>6005</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="55">
@@ -4835,14 +4867,16 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>7001</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>316</v>
+      </c>
       <c r="E46" s="5"/>
       <c r="F46" s="55"/>
       <c r="G46" s="5"/>
@@ -4856,20 +4890,22 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P46" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>7002</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>317</v>
+      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="55"/>
       <c r="G47" s="5"/>
@@ -4883,20 +4919,22 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P47" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>7003</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="5"/>
+        <v>315</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="55"/>
       <c r="G48" s="5"/>
@@ -4910,20 +4948,22 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P48" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>7004</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="55"/>
       <c r="G49" s="5"/>
@@ -4932,7 +4972,7 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M49" s="5">
         <v>30</v>
@@ -4941,20 +4981,22 @@
         <v>5</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P49" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>7005</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="E50" s="5"/>
       <c r="F50" s="55"/>
       <c r="G50" s="5"/>
@@ -4963,7 +5005,7 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M50" s="5">
         <v>5</v>
@@ -4972,20 +5014,22 @@
         <v>50</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P50" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>7006</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D51" s="55"/>
+        <v>299</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>321</v>
+      </c>
       <c r="E51" s="55"/>
       <c r="F51" s="55"/>
       <c r="G51" s="55"/>
@@ -4999,14 +5043,16 @@
       <c r="O51" s="55"/>
       <c r="P51" s="55"/>
     </row>
-    <row r="52" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>7007</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D52" s="55"/>
+        <v>300</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>323</v>
+      </c>
       <c r="E52" s="55"/>
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
@@ -5020,14 +5066,16 @@
       <c r="O52" s="55"/>
       <c r="P52" s="55"/>
     </row>
-    <row r="53" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>7008</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D53" s="55"/>
+        <v>301</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>322</v>
+      </c>
       <c r="E53" s="55"/>
       <c r="F53" s="55"/>
       <c r="G53" s="55"/>
@@ -5061,7 +5109,7 @@
     <row r="55" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
       <c r="C55" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -5082,7 +5130,7 @@
         <v>8001</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -5096,7 +5144,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P56" s="5">
         <v>30</v>
@@ -5107,7 +5155,7 @@
         <v>8002</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -5121,7 +5169,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P57" s="5">
         <v>20</v>
@@ -5132,7 +5180,7 @@
         <v>8003</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -5146,7 +5194,7 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P58" s="5">
         <v>20</v>
@@ -5157,7 +5205,7 @@
         <v>8004</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -5171,7 +5219,7 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P59" s="5">
         <v>100</v>
@@ -5182,7 +5230,7 @@
         <v>8005</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -5196,7 +5244,7 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P60" s="5">
         <v>100</v>
@@ -5222,7 +5270,7 @@
     <row r="62" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
       <c r="C62" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -5243,7 +5291,7 @@
         <v>9001</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -5257,7 +5305,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P63" s="5">
         <v>1000</v>
@@ -5268,10 +5316,10 @@
         <v>9002</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="55"/>
@@ -5284,7 +5332,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P64" s="5">
         <v>1000</v>
@@ -5295,7 +5343,7 @@
         <v>9003</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -5309,7 +5357,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P65" s="5">
         <v>1000</v>
@@ -5320,7 +5368,7 @@
         <v>9004</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -5334,7 +5382,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P66" s="5">
         <v>1000</v>
@@ -5345,10 +5393,10 @@
         <v>9005</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="55"/>
@@ -5361,7 +5409,7 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P67" s="5">
         <v>1000</v>
@@ -5372,7 +5420,7 @@
         <v>9006</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -5386,7 +5434,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P68" s="5">
         <v>1000</v>
@@ -5397,7 +5445,7 @@
         <v>9007</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -5416,7 +5464,7 @@
     <row r="70" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
       <c r="C70" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -5437,7 +5485,7 @@
         <v>100001</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -5451,7 +5499,7 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P71" s="5">
         <v>1</v>
@@ -5462,7 +5510,7 @@
         <v>100002</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -5476,7 +5524,7 @@
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P72" s="5">
         <v>1</v>
@@ -5487,7 +5535,7 @@
         <v>100003</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -5501,7 +5549,7 @@
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P73" s="5">
         <v>1</v>
@@ -5510,7 +5558,7 @@
     <row r="74" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
       <c r="C74" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D74" s="44"/>
       <c r="E74" s="44"/>
@@ -5531,7 +5579,7 @@
         <v>110001</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D75" s="44"/>
       <c r="E75" s="44"/>
@@ -5545,7 +5593,7 @@
       <c r="M75" s="44"/>
       <c r="N75" s="44"/>
       <c r="O75" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P75" s="44">
         <v>1</v>
@@ -5556,7 +5604,7 @@
         <v>110002</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D76" s="44"/>
       <c r="E76" s="44"/>
@@ -5570,7 +5618,7 @@
       <c r="M76" s="44"/>
       <c r="N76" s="44"/>
       <c r="O76" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P76" s="44">
         <v>1</v>
@@ -5581,7 +5629,7 @@
         <v>110003</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
@@ -5602,7 +5650,7 @@
         <v>110004</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
@@ -5623,7 +5671,7 @@
         <v>110005</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
@@ -5644,7 +5692,7 @@
         <v>110006</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D80" s="55"/>
       <c r="E80" s="55"/>
@@ -5675,7 +5723,7 @@
       <c r="M81" s="44"/>
       <c r="N81" s="44"/>
       <c r="O81" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P81" s="44">
         <v>1</v>
@@ -5684,7 +5732,7 @@
     <row r="82" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
       <c r="C82" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D82" s="55"/>
       <c r="E82" s="55"/>
@@ -5705,7 +5753,7 @@
         <v>120001</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D83" s="55"/>
       <c r="E83" s="55"/>
@@ -5719,7 +5767,7 @@
       <c r="M83" s="55"/>
       <c r="N83" s="55"/>
       <c r="O83" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P83" s="55">
         <v>1</v>
@@ -5730,7 +5778,7 @@
         <v>120002</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D84" s="55"/>
       <c r="E84" s="55"/>
@@ -5744,7 +5792,7 @@
       <c r="M84" s="55"/>
       <c r="N84" s="55"/>
       <c r="O84" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P84" s="55">
         <v>1</v>
@@ -5755,7 +5803,7 @@
         <v>120003</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
@@ -5776,7 +5824,7 @@
         <v>120004</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D86" s="55"/>
       <c r="E86" s="55"/>
@@ -5797,7 +5845,7 @@
         <v>120005</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D87" s="55"/>
       <c r="E87" s="55"/>
@@ -5811,7 +5859,7 @@
       <c r="M87" s="55"/>
       <c r="N87" s="55"/>
       <c r="O87" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P87" s="55">
         <v>1</v>
@@ -5822,7 +5870,7 @@
         <v>120006</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D88" s="55"/>
       <c r="E88" s="55"/>
@@ -5843,7 +5891,7 @@
         <v>120007</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D89" s="55"/>
       <c r="E89" s="55"/>
@@ -5874,7 +5922,7 @@
       <c r="M90" s="55"/>
       <c r="N90" s="55"/>
       <c r="O90" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P90" s="55">
         <v>1</v>
@@ -5883,7 +5931,7 @@
     <row r="91" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
       <c r="C91" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D91" s="55"/>
       <c r="E91" s="55"/>
@@ -5904,7 +5952,7 @@
         <v>130001</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D92" s="55"/>
       <c r="E92" s="55"/>
@@ -5918,7 +5966,7 @@
       <c r="M92" s="55"/>
       <c r="N92" s="55"/>
       <c r="O92" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P92" s="55">
         <v>1</v>
@@ -5929,7 +5977,7 @@
         <v>130002</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D93" s="55"/>
       <c r="E93" s="55"/>
@@ -5943,7 +5991,7 @@
       <c r="M93" s="55"/>
       <c r="N93" s="55"/>
       <c r="O93" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P93" s="55">
         <v>1</v>
@@ -5954,7 +6002,7 @@
         <v>130003</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D94" s="55"/>
       <c r="E94" s="55"/>
@@ -5968,7 +6016,7 @@
       <c r="M94" s="55"/>
       <c r="N94" s="55"/>
       <c r="O94" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P94" s="55">
         <v>1</v>
@@ -5979,7 +6027,7 @@
         <v>130004</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D95" s="55"/>
       <c r="E95" s="55"/>
@@ -6049,7 +6097,7 @@
     <row r="99" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="14"/>
       <c r="C99" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D99" s="55"/>
       <c r="E99" s="55"/>
@@ -6070,7 +6118,7 @@
         <v>140001</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
@@ -6084,7 +6132,7 @@
       <c r="M100" s="55"/>
       <c r="N100" s="55"/>
       <c r="O100" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P100" s="55">
         <v>1</v>
@@ -6095,7 +6143,7 @@
         <v>140002</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D101" s="55"/>
       <c r="E101" s="55"/>
@@ -6109,7 +6157,7 @@
       <c r="M101" s="55"/>
       <c r="N101" s="55"/>
       <c r="O101" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P101" s="55">
         <v>1</v>
@@ -6120,7 +6168,7 @@
         <v>140003</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D102" s="55"/>
       <c r="E102" s="55"/>
@@ -6134,7 +6182,7 @@
       <c r="M102" s="55"/>
       <c r="N102" s="55"/>
       <c r="O102" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P102" s="55">
         <v>1</v>
@@ -6145,7 +6193,7 @@
         <v>140004</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D103" s="55"/>
       <c r="E103" s="55"/>
@@ -6159,7 +6207,7 @@
       <c r="M103" s="55"/>
       <c r="N103" s="55"/>
       <c r="O103" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P103" s="55">
         <v>1</v>
@@ -6180,7 +6228,7 @@
       <c r="M104" s="55"/>
       <c r="N104" s="55"/>
       <c r="O104" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P104" s="55">
         <v>1</v>
@@ -6201,7 +6249,7 @@
       <c r="M105" s="55"/>
       <c r="N105" s="55"/>
       <c r="O105" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P105" s="55">
         <v>1</v>
@@ -6237,18 +6285,18 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="61"/>
+      <c r="B2" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="67"/>
     </row>
     <row r="4" spans="2:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -6264,10 +6312,10 @@
     </row>
     <row r="5" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="D5" s="44">
         <v>1</v>
@@ -6286,10 +6334,10 @@
     </row>
     <row r="6" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D6" s="44">
         <v>1</v>
@@ -6308,10 +6356,10 @@
     </row>
     <row r="7" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D7" s="44">
         <v>1</v>
@@ -6330,10 +6378,10 @@
     </row>
     <row r="8" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D8" s="44">
         <v>1</v>
@@ -6352,10 +6400,10 @@
     </row>
     <row r="9" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D9" s="44">
         <v>1</v>
@@ -6374,10 +6422,10 @@
     </row>
     <row r="10" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D10" s="44">
         <v>1</v>
@@ -6396,10 +6444,10 @@
     </row>
     <row r="11" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D11" s="44">
         <v>1</v>
@@ -6418,10 +6466,10 @@
     </row>
     <row r="12" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D12" s="44">
         <v>1</v>
@@ -6747,10 +6795,10 @@
         <v>39</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>41</v>
@@ -6763,7 +6811,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6811,7 +6859,7 @@
     </row>
     <row r="9" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6823,7 +6871,7 @@
     </row>
     <row r="10" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6855,7 +6903,7 @@
     </row>
     <row r="13" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6891,7 +6939,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6903,7 +6951,7 @@
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>

--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Unity\Zcavenger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pablo\UNITY PROJECTS\Zcavenger\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dev RoadMap" sheetId="1" r:id="rId1"/>
@@ -315,8 +315,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Grenade
-Molovot Coctail ok
+Grenade ok
+Molovot Cocktail ok
 Rock</t>
         </r>
       </text>
@@ -1360,7 +1360,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2323,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,10 +3638,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1350" topLeftCell="A41" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1350" topLeftCell="A38" activePane="bottomLeft"/>
       <selection activeCell="G2" sqref="G2"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Dev RoadMap" sheetId="1" r:id="rId1"/>
@@ -2323,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,7 +2831,7 @@
       <c r="B40" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="20" t="s">
         <v>249</v>
       </c>
       <c r="F40" s="43" t="s">
@@ -3638,7 +3638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1350" topLeftCell="A38" activePane="bottomLeft"/>
       <selection activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>

--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Levels" sheetId="5" r:id="rId5"/>
     <sheet name="Enemies" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -264,6 +264,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="F40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pflores:
+Head,Torso,Leg</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <r>
@@ -292,6 +307,30 @@
  Grenade ok
  Molotov ok
  Rock ok </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pflores:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1361,7 +1400,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1475,6 +1514,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2324,7 +2376,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,7 +2883,7 @@
       <c r="B40" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="19" t="s">
         <v>249</v>
       </c>
       <c r="F40" s="43" t="s">

--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -360,6 +360,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="F46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pflores:
+Head,Torso,Leg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pflores:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Grab Item
+Use Bandage ok
+Eat Food ok
+Drink Water ok
+Throw objects:
+ Grenade ok
+ Molotov ok
+ Rock ok </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pflores:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario de Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Grenade ok
+Molovot Cocktail ok
+Rock</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -399,7 +495,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="329">
   <si>
     <t>Platforms:</t>
   </si>
@@ -756,9 +852,6 @@
   </si>
   <si>
     <t>Advanced Player movement controller</t>
-  </si>
-  <si>
-    <t>Enemy Spawn Manager for testing</t>
   </si>
   <si>
     <t>PRE-ALPHA V0.1</t>
@@ -1105,9 +1198,6 @@
     <t>PowerUps</t>
   </si>
   <si>
-    <t>enterable buildings: ruined residential building, office building, markets</t>
-  </si>
-  <si>
     <t>UI:
 options menu with display, graphics, audio and input settings</t>
   </si>
@@ -1154,16 +1244,10 @@
     <t>Performance: LOD Groups</t>
   </si>
   <si>
-    <t>City level final design</t>
-  </si>
-  <si>
     <t>Levels: Hospital level design</t>
   </si>
   <si>
     <t>AI: Player detection by sounds</t>
-  </si>
-  <si>
-    <t>Levels: Procedural level generation</t>
   </si>
   <si>
     <t>Animations:
@@ -1394,6 +1478,28 @@
   </si>
   <si>
     <t>A glass bottle filled with flammable substances</t>
+  </si>
+  <si>
+    <t>Levels: Elevators</t>
+  </si>
+  <si>
+    <t>UI: Equipment quickbar</t>
+  </si>
+  <si>
+    <t>ALPHA V0.5</t>
+  </si>
+  <si>
+    <t>Levels: City</t>
+  </si>
+  <si>
+    <t>Enemy Spawn Manager</t>
+  </si>
+  <si>
+    <t>enterable buildings for city level: ruined residential building, office building, markets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levels: Procedural level generation
+</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2071,6 +2177,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2373,10 +2482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,18 +2505,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2432,7 +2541,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>7</v>
@@ -2460,19 +2569,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2481,7 +2590,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="19" t="s">
@@ -2489,11 +2598,11 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2502,7 +2611,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="19" t="s">
-        <v>119</v>
+        <v>326</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="19" t="s">
@@ -2510,11 +2619,11 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2531,30 +2640,30 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2564,7 +2673,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="2"/>
       <c r="H13" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I13" s="34"/>
     </row>
@@ -2595,7 +2704,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2607,7 +2716,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>7</v>
@@ -2631,10 +2740,10 @@
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="5"/>
@@ -2740,7 +2849,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>7</v>
@@ -2764,68 +2873,68 @@
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>231</v>
+        <v>327</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B32" s="41" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B33" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B34" s="41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H34" s="42"/>
       <c r="J34" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2857,7 +2966,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>7</v>
@@ -2879,59 +2988,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>250</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B41" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="D41" s="62" t="s">
+        <v>245</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="D42" s="55"/>
+        <v>248</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>322</v>
+      </c>
       <c r="F42" s="55"/>
       <c r="H42" s="43" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J42" s="55"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="D43" s="55"/>
+        <v>310</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>323</v>
+      </c>
       <c r="F43" s="55"/>
       <c r="H43" s="43" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J43" s="55"/>
     </row>
@@ -2943,31 +3056,83 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="A45" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="B46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="J47" s="63"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="B48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="J48" s="63"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="J49" s="63"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3002,7 +3167,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>11</v>
@@ -3039,7 +3204,7 @@
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -3055,28 +3220,28 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>139</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3086,23 +3251,23 @@
     </row>
     <row r="5" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="55"/>
       <c r="I5" s="7"/>
@@ -3113,23 +3278,23 @@
     </row>
     <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="25"/>
@@ -3140,28 +3305,28 @@
     </row>
     <row r="7" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="D7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -3171,23 +3336,23 @@
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="22"/>
@@ -3198,23 +3363,23 @@
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>173</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>174</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="34"/>
@@ -3225,23 +3390,23 @@
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="22"/>
@@ -3255,20 +3420,20 @@
         <v>11</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="22"/>
@@ -3282,20 +3447,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E12" s="61"/>
       <c r="F12" s="61" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="56"/>
@@ -3309,20 +3474,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E13" s="61"/>
       <c r="F13" s="61" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="22"/>
@@ -3336,20 +3501,20 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="56"/>
@@ -3363,20 +3528,20 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="56"/>
@@ -3390,20 +3555,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="56"/>
@@ -3429,7 +3594,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3445,10 +3610,10 @@
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -3460,10 +3625,10 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -3475,10 +3640,10 @@
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -3490,20 +3655,20 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -3708,17 +3873,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>93</v>
@@ -3739,7 +3904,7 @@
         <v>94</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>71</v>
@@ -4154,10 +4319,10 @@
         <v>2005</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E18" s="5">
         <v>9</v>
@@ -4280,10 +4445,10 @@
         <v>3003</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="5">
         <v>7</v>
@@ -4320,7 +4485,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="5">
         <v>8</v>
@@ -4776,10 +4941,10 @@
         <v>6002</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>74</v>
@@ -4865,7 +5030,7 @@
         <v>6005</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="55">
@@ -4927,7 +5092,7 @@
         <v>60</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="55"/>
@@ -4953,10 +5118,10 @@
         <v>7002</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="55"/>
@@ -4982,10 +5147,10 @@
         <v>7003</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="55"/>
@@ -5014,7 +5179,7 @@
         <v>67</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="55"/>
@@ -5047,7 +5212,7 @@
         <v>68</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="55"/>
@@ -5077,10 +5242,10 @@
         <v>7006</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E51" s="55"/>
       <c r="F51" s="55"/>
@@ -5100,10 +5265,10 @@
         <v>7007</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E52" s="55"/>
       <c r="F52" s="55"/>
@@ -5123,10 +5288,10 @@
         <v>7008</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E53" s="55"/>
       <c r="F53" s="55"/>
@@ -5371,7 +5536,7 @@
         <v>107</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="55"/>
@@ -5448,7 +5613,7 @@
         <v>80</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="55"/>
@@ -5497,7 +5662,7 @@
         <v>9007</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -5516,7 +5681,7 @@
     <row r="70" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
       <c r="C70" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -5537,7 +5702,7 @@
         <v>100001</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -5562,7 +5727,7 @@
         <v>100002</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -5587,7 +5752,7 @@
         <v>100003</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -5610,7 +5775,7 @@
     <row r="74" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
       <c r="C74" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D74" s="44"/>
       <c r="E74" s="44"/>
@@ -5631,7 +5796,7 @@
         <v>110001</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D75" s="44"/>
       <c r="E75" s="44"/>
@@ -5656,7 +5821,7 @@
         <v>110002</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D76" s="44"/>
       <c r="E76" s="44"/>
@@ -5681,7 +5846,7 @@
         <v>110003</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
@@ -5702,7 +5867,7 @@
         <v>110004</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
@@ -5723,7 +5888,7 @@
         <v>110005</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
@@ -5744,7 +5909,7 @@
         <v>110006</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D80" s="55"/>
       <c r="E80" s="55"/>
@@ -5784,7 +5949,7 @@
     <row r="82" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
       <c r="C82" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D82" s="55"/>
       <c r="E82" s="55"/>
@@ -5805,7 +5970,7 @@
         <v>120001</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D83" s="55"/>
       <c r="E83" s="55"/>
@@ -5830,7 +5995,7 @@
         <v>120002</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D84" s="55"/>
       <c r="E84" s="55"/>
@@ -5855,7 +6020,7 @@
         <v>120003</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
@@ -5876,7 +6041,7 @@
         <v>120004</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D86" s="55"/>
       <c r="E86" s="55"/>
@@ -5897,7 +6062,7 @@
         <v>120005</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D87" s="55"/>
       <c r="E87" s="55"/>
@@ -5922,7 +6087,7 @@
         <v>120006</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D88" s="55"/>
       <c r="E88" s="55"/>
@@ -5943,7 +6108,7 @@
         <v>120007</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D89" s="55"/>
       <c r="E89" s="55"/>
@@ -5983,7 +6148,7 @@
     <row r="91" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
       <c r="C91" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D91" s="55"/>
       <c r="E91" s="55"/>
@@ -6004,7 +6169,7 @@
         <v>130001</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D92" s="55"/>
       <c r="E92" s="55"/>
@@ -6029,7 +6194,7 @@
         <v>130002</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D93" s="55"/>
       <c r="E93" s="55"/>
@@ -6054,7 +6219,7 @@
         <v>130003</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D94" s="55"/>
       <c r="E94" s="55"/>
@@ -6079,7 +6244,7 @@
         <v>130004</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D95" s="55"/>
       <c r="E95" s="55"/>
@@ -6149,7 +6314,7 @@
     <row r="99" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="14"/>
       <c r="C99" s="14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D99" s="55"/>
       <c r="E99" s="55"/>
@@ -6170,7 +6335,7 @@
         <v>140001</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
@@ -6195,7 +6360,7 @@
         <v>140002</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D101" s="55"/>
       <c r="E101" s="55"/>
@@ -6220,7 +6385,7 @@
         <v>140003</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D102" s="55"/>
       <c r="E102" s="55"/>
@@ -6245,7 +6410,7 @@
         <v>140004</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D103" s="55"/>
       <c r="E103" s="55"/>
@@ -6337,18 +6502,18 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="67"/>
+      <c r="B2" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="68"/>
     </row>
     <row r="4" spans="2:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -6364,10 +6529,10 @@
     </row>
     <row r="5" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="44">
         <v>1</v>
@@ -6386,10 +6551,10 @@
     </row>
     <row r="6" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D6" s="44">
         <v>1</v>
@@ -6408,10 +6573,10 @@
     </row>
     <row r="7" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="44">
         <v>1</v>
@@ -6430,10 +6595,10 @@
     </row>
     <row r="8" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" s="44">
         <v>1</v>
@@ -6452,10 +6617,10 @@
     </row>
     <row r="9" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9" s="44">
         <v>1</v>
@@ -6474,10 +6639,10 @@
     </row>
     <row r="10" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="44">
         <v>1</v>
@@ -6496,10 +6661,10 @@
     </row>
     <row r="11" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="44">
         <v>1</v>
@@ -6518,10 +6683,10 @@
     </row>
     <row r="12" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" s="44">
         <v>1</v>
@@ -6847,10 +7012,10 @@
         <v>39</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>41</v>
@@ -6863,7 +7028,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6911,7 +7076,7 @@
     </row>
     <row r="9" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6923,7 +7088,7 @@
     </row>
     <row r="10" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6955,7 +7120,7 @@
     </row>
     <row r="13" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6991,7 +7156,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -7003,7 +7168,7 @@
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>

--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pablo\UNITY PROJECTS\Zcavenger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNITY\Zcavenger\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3586C1-9401-4A0F-81F8-E3A1ECA6B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dev RoadMap" sheetId="1" r:id="rId1"/>
@@ -29,13 +30,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pflores</author>
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0">
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -169,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J33" authorId="1" shapeId="0">
+    <comment ref="J33" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="0" shapeId="0">
+    <comment ref="F40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0" shapeId="0">
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="0" shapeId="0">
+    <comment ref="F41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -334,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="1" shapeId="0">
+    <comment ref="B42" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -360,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="0" shapeId="0">
+    <comment ref="F46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" shapeId="0">
+    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -406,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F47" authorId="0" shapeId="0">
+    <comment ref="F47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -430,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="1" shapeId="0">
+    <comment ref="B48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -461,12 +462,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pflores</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1505,7 +1506,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2481,11 +2482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3001,7 +3002,7 @@
       <c r="H40" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="20" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3144,7 +3145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3852,7 +3853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:P105"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6482,7 +6483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:O17"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -6793,7 +6794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6987,7 +6988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNITY\Zcavenger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3586C1-9401-4A0F-81F8-E3A1ECA6B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBB54BA-CF73-4A67-AAE6-52988D02CBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,8 +275,9 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Pflores:
-Head,Torso,Leg</t>
+          <t xml:space="preserve">Pflores:
+Head,Torso,Leg,backpack
+</t>
         </r>
       </text>
     </comment>
@@ -311,30 +312,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Pflores:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B42" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
@@ -356,58 +333,11 @@
           </rPr>
           <t xml:space="preserve">
 Grenade ok
-Molovot Cocktail ok
-Rock</t>
+Molovot Cocktail ok</t>
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Pflores:
-Head,Torso,Leg</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Pflores:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Grab Item
-Use Bandage ok
-Eat Food ok
-Drink Water ok
-Throw objects:
- Grenade ok
- Molotov ok
- Rock ok </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{A4FEDE02-96DA-485A-A623-E4B7289465E0}">
       <text>
         <r>
           <rPr>
@@ -428,32 +358,6 @@
           </rPr>
           <t xml:space="preserve">
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Usuario de Windows:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Grenade ok
-Molovot Cocktail ok
-Rock</t>
         </r>
       </text>
     </comment>
@@ -496,7 +400,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="328">
   <si>
     <t>Platforms:</t>
   </si>
@@ -1245,9 +1149,6 @@
     <t>Performance: LOD Groups</t>
   </si>
   <si>
-    <t>Levels: Hospital level design</t>
-  </si>
-  <si>
     <t>AI: Player detection by sounds</t>
   </si>
   <si>
@@ -1427,9 +1328,6 @@
     <t>Slow Time</t>
   </si>
   <si>
-    <t>UI: Level Map</t>
-  </si>
-  <si>
     <t>When climbing a ladder player is not aligned with the ladder x-axis</t>
   </si>
   <si>
@@ -1488,9 +1386,6 @@
   </si>
   <si>
     <t>ALPHA V0.5</t>
-  </si>
-  <si>
-    <t>Levels: City</t>
   </si>
   <si>
     <t>Enemy Spawn Manager</t>
@@ -1501,6 +1396,12 @@
   <si>
     <t xml:space="preserve">Levels: Procedural level generation
 </t>
+  </si>
+  <si>
+    <t>Levels: Hospital building design</t>
+  </si>
+  <si>
+    <t>Levels: Demo level</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +1893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2178,6 +2079,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2485,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2516,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="19" t="s">
@@ -2850,7 +2754,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>7</v>
@@ -2877,7 +2781,7 @@
         <v>202</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F31" s="41" t="s">
         <v>232</v>
@@ -2891,7 +2795,7 @@
     </row>
     <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B32" s="41" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D32" s="41" t="s">
         <v>230</v>
@@ -2967,7 +2871,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>7</v>
@@ -2991,62 +2895,50 @@
     </row>
     <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D40" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F40" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="F40" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="B41" s="41" t="s">
+      <c r="D41" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="F41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="J41" s="64"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="62" t="s">
-        <v>245</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="J41" s="43" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="D42" s="62" t="s">
-        <v>322</v>
+      <c r="D42" s="41" t="s">
+        <v>320</v>
       </c>
       <c r="F42" s="55"/>
-      <c r="H42" s="43" t="s">
-        <v>294</v>
-      </c>
+      <c r="H42" s="64"/>
       <c r="J42" s="55"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D43" s="41" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F43" s="55"/>
-      <c r="H43" s="43" t="s">
-        <v>308</v>
-      </c>
+      <c r="H43" s="64"/>
       <c r="J43" s="55"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3058,7 +2950,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>7</v>
@@ -3080,29 +2972,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="F46" s="63"/>
-      <c r="H46" s="63"/>
+    <row r="46" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B46" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>306</v>
+      </c>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="63"/>
+      <c r="B47" s="64"/>
       <c r="D47" s="63"/>
-      <c r="F47" s="63"/>
+      <c r="F47" s="43" t="s">
+        <v>293</v>
+      </c>
       <c r="H47" s="63"/>
       <c r="J47" s="63"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="63"/>
+      <c r="B48" s="64"/>
       <c r="D48" s="63"/>
       <c r="F48" s="63"/>
       <c r="H48" s="63"/>
       <c r="J48" s="63"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="63"/>
+      <c r="B49" s="64"/>
       <c r="D49" s="63"/>
       <c r="F49" s="63"/>
       <c r="H49" s="63"/>
@@ -3404,7 +3306,7 @@
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>190</v>
@@ -3421,20 +3323,20 @@
         <v>11</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>147</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="39" t="s">
         <v>254</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>255</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="22"/>
@@ -3448,20 +3350,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>147</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="61"/>
       <c r="F12" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="G12" s="61" t="s">
         <v>269</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>270</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="56"/>
@@ -3475,20 +3377,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" s="59" t="s">
         <v>147</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E13" s="61"/>
       <c r="F13" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="61" t="s">
         <v>258</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>259</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="22"/>
@@ -3502,20 +3404,20 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>146</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>262</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>263</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="56"/>
@@ -3535,14 +3437,14 @@
         <v>146</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>265</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>266</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="56"/>
@@ -3562,14 +3464,14 @@
         <v>146</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="56"/>
@@ -3611,10 +3513,10 @@
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -3626,10 +3528,10 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -3641,10 +3543,10 @@
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -3656,20 +3558,20 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -3874,10 +3776,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
@@ -4942,10 +4844,10 @@
         <v>6002</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>74</v>
@@ -5031,7 +4933,7 @@
         <v>6005</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="55">
@@ -5093,7 +4995,7 @@
         <v>60</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="55"/>
@@ -5122,7 +5024,7 @@
         <v>169</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="55"/>
@@ -5148,10 +5050,10 @@
         <v>7003</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="55"/>
@@ -5180,7 +5082,7 @@
         <v>67</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="55"/>
@@ -5213,7 +5115,7 @@
         <v>68</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="55"/>
@@ -5243,10 +5145,10 @@
         <v>7006</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E51" s="55"/>
       <c r="F51" s="55"/>
@@ -5266,10 +5168,10 @@
         <v>7007</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E52" s="55"/>
       <c r="F52" s="55"/>
@@ -5289,10 +5191,10 @@
         <v>7008</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E53" s="55"/>
       <c r="F53" s="55"/>
@@ -5797,7 +5699,7 @@
         <v>110001</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D75" s="44"/>
       <c r="E75" s="44"/>
@@ -5822,7 +5724,7 @@
         <v>110002</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D76" s="44"/>
       <c r="E76" s="44"/>
@@ -5847,7 +5749,7 @@
         <v>110003</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
@@ -5868,7 +5770,7 @@
         <v>110004</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
@@ -5889,7 +5791,7 @@
         <v>110005</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
@@ -5910,7 +5812,7 @@
         <v>110006</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D80" s="55"/>
       <c r="E80" s="55"/>
@@ -5950,7 +5852,7 @@
     <row r="82" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
       <c r="C82" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D82" s="55"/>
       <c r="E82" s="55"/>
@@ -5971,7 +5873,7 @@
         <v>120001</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D83" s="55"/>
       <c r="E83" s="55"/>
@@ -5996,7 +5898,7 @@
         <v>120002</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D84" s="55"/>
       <c r="E84" s="55"/>
@@ -6021,7 +5923,7 @@
         <v>120003</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
@@ -6042,7 +5944,7 @@
         <v>120004</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D86" s="55"/>
       <c r="E86" s="55"/>
@@ -6063,7 +5965,7 @@
         <v>120005</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D87" s="55"/>
       <c r="E87" s="55"/>
@@ -6088,7 +5990,7 @@
         <v>120006</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D88" s="55"/>
       <c r="E88" s="55"/>
@@ -6109,7 +6011,7 @@
         <v>120007</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D89" s="55"/>
       <c r="E89" s="55"/>
@@ -6149,7 +6051,7 @@
     <row r="91" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
       <c r="C91" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D91" s="55"/>
       <c r="E91" s="55"/>
@@ -6170,7 +6072,7 @@
         <v>130001</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D92" s="55"/>
       <c r="E92" s="55"/>
@@ -6195,7 +6097,7 @@
         <v>130002</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D93" s="55"/>
       <c r="E93" s="55"/>
@@ -6220,7 +6122,7 @@
         <v>130003</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D94" s="55"/>
       <c r="E94" s="55"/>
@@ -6245,7 +6147,7 @@
         <v>130004</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D95" s="55"/>
       <c r="E95" s="55"/>
@@ -6315,7 +6217,7 @@
     <row r="99" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="14"/>
       <c r="C99" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="55"/>
       <c r="E99" s="55"/>
@@ -6336,7 +6238,7 @@
         <v>140001</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
@@ -6361,7 +6263,7 @@
         <v>140002</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="55"/>
       <c r="E101" s="55"/>
@@ -6386,7 +6288,7 @@
         <v>140003</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="55"/>
       <c r="E102" s="55"/>
@@ -6411,7 +6313,7 @@
         <v>140004</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="55"/>
       <c r="E103" s="55"/>
@@ -6503,10 +6405,10 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="68"/>
+      <c r="C2" s="69"/>
     </row>
     <row r="4" spans="2:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
